--- a/trunk/hardware/PowerBoard/Document/Connector Bus Signals.xlsx
+++ b/trunk/hardware/PowerBoard/Document/Connector Bus Signals.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
   <si>
     <t>Pin</t>
   </si>
@@ -82,9 +82,6 @@
     <t>PC15</t>
   </si>
   <si>
-    <t>PA8</t>
-  </si>
-  <si>
     <t>PB4</t>
   </si>
   <si>
@@ -138,6 +135,12 @@
   </si>
   <si>
     <t>Bus 2 Signals</t>
+  </si>
+  <si>
+    <t>PA9</t>
+  </si>
+  <si>
+    <t>PA10</t>
   </si>
 </sst>
 </file>
@@ -208,15 +211,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -227,11 +224,2505 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="440">
+  <dxfs count="501">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF96B996"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -388,6 +2879,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF96B996"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF96B996"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF527C57"/>
       </font>
@@ -684,34 +3203,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF527C57"/>
       </font>
@@ -853,76 +3344,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF527C57"/>
       </font>
@@ -1064,6 +3485,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF96B996"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF527C57"/>
       </font>
@@ -1205,6 +3640,76 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF96B996"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF96B996"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF96B996"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF96B996"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF96B996"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF527C57"/>
       </font>
@@ -2470,1647 +4975,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF527C57"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB8D0BB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA6CAB5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8DB1A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8DB1A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA6CAB5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF527C57"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB8D0BB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8DB1A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA6CAB5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF527C57"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB8D0BB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8DB1A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA6CAB5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF527C57"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB8D0BB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8DB1A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA6CAB5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF527C57"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB8D0BB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8DB1A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA6CAB5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF527C57"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB8D0BB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8DB1A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA6CAB5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF527C57"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB8D0BB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8DB1A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA6CAB5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF527C57"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB8D0BB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8DB1A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA6CAB5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF527C57"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB8D0BB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8DB1A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA6CAB5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF527C57"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB8D0BB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8DB1A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA6CAB5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF527C57"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB8D0BB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8DB1A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA6CAB5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF527C57"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB8D0BB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8DB1A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA6CAB5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF527C57"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB8D0BB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8DB1A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA6CAB5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF527C57"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB8D0BB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8DB1A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA6CAB5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF527C57"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB8D0BB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF96B996"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8DB1A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA6CAB5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF527C57"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB8D0BB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8DB1A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF486C4C"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA6CAB5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF527C57"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB8D0BB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4419,7 +5283,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4432,40 +5296,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="3"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4506,7 +5370,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>3</v>
@@ -4518,12 +5382,12 @@
         <v>4</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
@@ -4531,11 +5395,11 @@
       <c r="D5" s="1">
         <v>6</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1">
         <v>5</v>
@@ -4543,13 +5407,13 @@
       <c r="J5" s="1">
         <v>6</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>6</v>
+      <c r="K5" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -4558,10 +5422,10 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1">
         <v>7</v>
@@ -4570,12 +5434,12 @@
         <v>8</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" s="1" t="s">
-        <v>7</v>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>9</v>
@@ -4583,11 +5447,11 @@
       <c r="D7" s="1">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>7</v>
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="I7" s="1">
         <v>9</v>
@@ -4595,13 +5459,13 @@
       <c r="J7" s="1">
         <v>10</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>7</v>
+      <c r="K7" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
         <v>11</v>
@@ -4610,10 +5474,10 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1">
         <v>11</v>
@@ -4622,12 +5486,15 @@
         <v>12</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="1" t="s">
-        <v>7</v>
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>13</v>
@@ -4635,25 +5502,25 @@
       <c r="D9" s="1">
         <v>14</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1">
         <v>13</v>
       </c>
       <c r="J9" s="1">
         <v>14</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="1" t="s">
-        <v>2</v>
+      <c r="A10" s="7"/>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>15</v>
@@ -4661,28 +5528,23 @@
       <c r="D10" s="1">
         <v>16</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="1">
         <v>15</v>
       </c>
       <c r="J10" s="1">
         <v>16</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>19</v>
+      <c r="A11" s="7"/>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>17</v>
@@ -4690,12 +5552,10 @@
       <c r="D11" s="1">
         <v>18</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="E11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1">
         <v>17</v>
@@ -4706,9 +5566,9 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7" t="s">
-        <v>20</v>
+      <c r="A12" s="7"/>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>19</v>
@@ -4716,10 +5576,10 @@
       <c r="D12" s="1">
         <v>20</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="8"/>
+      <c r="E12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="7"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1">
         <v>19</v>
@@ -4739,10 +5599,10 @@
       <c r="D13" s="1">
         <v>22</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="7"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1">
         <v>21</v>
@@ -4753,11 +5613,11 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>10</v>
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C14" s="1">
         <v>23</v>
@@ -4765,10 +5625,9 @@
       <c r="D14" s="1">
         <v>24</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="8"/>
+      <c r="E14" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1">
         <v>23</v>
@@ -4779,18 +5638,15 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7" t="s">
-        <v>11</v>
+      <c r="A15" s="7"/>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="1">
         <v>25</v>
       </c>
       <c r="D15" s="1">
         <v>26</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1">
@@ -4802,9 +5658,8 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7" t="s">
-        <v>12</v>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C16" s="1">
         <v>27</v>
@@ -4821,11 +5676,7 @@
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7" t="s">
-        <v>13</v>
-      </c>
+    <row r="17" spans="2:11" ht="15" customHeight="1">
       <c r="C17" s="1">
         <v>29</v>
       </c>
@@ -4841,10 +5692,7 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11">
-      <c r="B18" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="18" spans="2:11">
       <c r="C18" s="1">
         <v>31</v>
       </c>
@@ -4860,7 +5708,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="2:11">
       <c r="C19" s="1">
         <v>33</v>
       </c>
@@ -4876,7 +5724,7 @@
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="2:11">
       <c r="C20" s="1">
         <v>35</v>
       </c>
@@ -4892,7 +5740,7 @@
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="2:11">
       <c r="C21" s="1">
         <v>37</v>
       </c>
@@ -4908,7 +5756,7 @@
       </c>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="2:11">
       <c r="C22" s="1">
         <v>39</v>
       </c>
@@ -4924,7 +5772,7 @@
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="2:11">
       <c r="C23" s="1">
         <v>41</v>
       </c>
@@ -4940,7 +5788,7 @@
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="2:11">
       <c r="C24" s="1">
         <v>43</v>
       </c>
@@ -4956,7 +5804,7 @@
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="2:11">
       <c r="C25" s="1">
         <v>45</v>
       </c>
@@ -4972,7 +5820,7 @@
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="2:11">
       <c r="C26" s="1">
         <v>47</v>
       </c>
@@ -4988,7 +5836,7 @@
       </c>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="2:11">
       <c r="C27" s="1">
         <v>49</v>
       </c>
@@ -5004,7 +5852,7 @@
       </c>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="2:11">
       <c r="C28" s="1">
         <v>51</v>
       </c>
@@ -5020,7 +5868,7 @@
       </c>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="2:11">
       <c r="C29" s="1">
         <v>53</v>
       </c>
@@ -5036,136 +5884,172 @@
       </c>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="2:11">
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C30" s="1">
         <v>55</v>
       </c>
       <c r="D30" s="1">
         <v>56</v>
       </c>
-      <c r="H30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I30" s="1">
         <v>55</v>
       </c>
       <c r="J30" s="1">
         <v>56</v>
       </c>
-      <c r="K30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="2:11">
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C31" s="1">
         <v>57</v>
       </c>
       <c r="D31" s="1">
         <v>58</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="I31" s="1">
         <v>57</v>
       </c>
       <c r="J31" s="1">
         <v>58</v>
       </c>
-      <c r="K31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="2:11">
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C32" s="1">
         <v>59</v>
       </c>
       <c r="D32" s="1">
         <v>60</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I32" s="1">
         <v>59</v>
       </c>
       <c r="J32" s="1">
         <v>60</v>
       </c>
-      <c r="K32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="33" spans="3:11">
+    <row r="33" spans="2:11">
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C33" s="1">
         <v>61</v>
       </c>
       <c r="D33" s="1">
         <v>62</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I33" s="1">
         <v>61</v>
       </c>
       <c r="J33" s="1">
         <v>62</v>
       </c>
-      <c r="K33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F9:F13"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3:K33 B3:E10 C7:C33 D8:D33">
-    <cfRule type="containsBlanks" dxfId="17" priority="25">
-      <formula>LEN(TRIM(B3))=0</formula>
+  <conditionalFormatting sqref="A1:K33">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="AGND">
+      <formula>NOT(ISERROR(SEARCH("AGND",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="26" operator="containsText" text="DXVY">
-      <formula>NOT(ISERROR(SEARCH("DXVY",B3)))</formula>
+    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="A3V3">
+      <formula>NOT(ISERROR(SEARCH("A3V3",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="A1V5">
-      <formula>NOT(ISERROR(SEARCH("A1V5",B3)))</formula>
+    <cfRule type="containsText" dxfId="30" priority="14" operator="containsText" text="A1V5">
+      <formula>NOT(ISERROR(SEARCH("A1V5",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="28" operator="containsText" text="DXVY">
-      <formula>NOT(ISERROR(SEARCH("DXVY",B3)))</formula>
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="DGND">
+      <formula>NOT(ISERROR(SEARCH("DGND",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="A3V3">
-      <formula>NOT(ISERROR(SEARCH("A3V3",B3)))</formula>
+    <cfRule type="containsText" dxfId="28" priority="12" operator="containsText" text="VOUT">
+      <formula>NOT(ISERROR(SEARCH("VOUT",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="30" operator="containsText" text="DXVY">
-      <formula>NOT(ISERROR(SEARCH("DXVY",B3)))</formula>
+    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="D3V3">
+      <formula>NOT(ISERROR(SEARCH("D3V3",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="DXVY">
-      <formula>NOT(ISERROR(SEARCH("DXVY",B3)))</formula>
+    <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="D1V5">
+      <formula>NOT(ISERROR(SEARCH("D1V5",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="32" operator="containsText" text="D1V5">
-      <formula>NOT(ISERROR(SEARCH("D1V5",B3)))</formula>
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="DXVY">
+      <formula>NOT(ISERROR(SEARCH("DXVY",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="33" operator="containsText" text="D3V3">
-      <formula>NOT(ISERROR(SEARCH("D3V3",B3)))</formula>
+    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="SPI">
+      <formula>NOT(ISERROR(SEARCH("SPI",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="34" operator="containsText" text="VOUT">
-      <formula>NOT(ISERROR(SEARCH("VOUT",B3)))</formula>
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="I2C">
+      <formula>NOT(ISERROR(SEARCH("I2C",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="35" operator="containsText" text="AGND">
-      <formula>NOT(ISERROR(SEARCH("AGND",B3)))</formula>
+    <cfRule type="beginsWith" dxfId="22" priority="5" operator="beginsWith" text="PA">
+      <formula>LEFT(A1,2)="PA"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="36" operator="containsText" text="AGND">
-      <formula>NOT(ISERROR(SEARCH("AGND",B3)))</formula>
+    <cfRule type="beginsWith" dxfId="21" priority="4" operator="beginsWith" text="PB">
+      <formula>LEFT(A1,2)="PB"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="37" operator="containsText" text="DGND">
-      <formula>NOT(ISERROR(SEARCH("DGND",B3)))</formula>
+    <cfRule type="beginsWith" dxfId="20" priority="3" operator="beginsWith" text="PC">
+      <formula>LEFT(A1,2)="PC"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="38" operator="containsText" text="DGND">
-      <formula>NOT(ISERROR(SEARCH("DGND",B3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="39" operator="containsText" text="AGND">
-      <formula>NOT(ISERROR(SEARCH("AGND",B3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="40" operator="containsText" text="DGND">
-      <formula>NOT(ISERROR(SEARCH("DGND",B3)))</formula>
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="GPIO">
+      <formula>NOT(ISERROR(SEARCH("GPIO",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:E33 C3:D33 B3 E3">
-    <cfRule type="containsBlanks" dxfId="1" priority="23">
-      <formula>LEN(TRIM(B3))=0</formula>
+  <conditionalFormatting sqref="P23">
+    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="A1V5">
+      <formula>NOT(ISERROR(SEARCH("A1V5",P23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="24" operator="containsText" text="DGND">
-      <formula>NOT(ISERROR(SEARCH("DGND",B3)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22">
+    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",N22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/hardware/PowerBoard/Document/Connector Bus Signals.xlsx
+++ b/trunk/hardware/PowerBoard/Document/Connector Bus Signals.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
   <si>
     <t>Pin</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>PA10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -5280,7 +5283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q32" sqref="Q32"/>
@@ -5676,7 +5679,7 @@
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="2:11" ht="15" customHeight="1">
+    <row r="17" spans="2:17" ht="15" customHeight="1">
       <c r="C17" s="1">
         <v>29</v>
       </c>
@@ -5692,7 +5695,7 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:17">
       <c r="C18" s="1">
         <v>31</v>
       </c>
@@ -5708,7 +5711,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:17">
       <c r="C19" s="1">
         <v>33</v>
       </c>
@@ -5724,7 +5727,7 @@
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:17">
       <c r="C20" s="1">
         <v>35</v>
       </c>
@@ -5740,7 +5743,7 @@
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:17">
       <c r="C21" s="1">
         <v>37</v>
       </c>
@@ -5756,7 +5759,7 @@
       </c>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:17">
       <c r="C22" s="1">
         <v>39</v>
       </c>
@@ -5772,7 +5775,7 @@
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:17">
       <c r="C23" s="1">
         <v>41</v>
       </c>
@@ -5788,7 +5791,7 @@
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:17">
       <c r="C24" s="1">
         <v>43</v>
       </c>
@@ -5804,7 +5807,7 @@
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:17">
       <c r="C25" s="1">
         <v>45</v>
       </c>
@@ -5820,7 +5823,7 @@
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:17">
       <c r="C26" s="1">
         <v>47</v>
       </c>
@@ -5836,7 +5839,7 @@
       </c>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:17">
       <c r="C27" s="1">
         <v>49</v>
       </c>
@@ -5852,7 +5855,7 @@
       </c>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:17">
       <c r="C28" s="1">
         <v>51</v>
       </c>
@@ -5868,7 +5871,7 @@
       </c>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:17">
       <c r="C29" s="1">
         <v>53</v>
       </c>
@@ -5884,7 +5887,7 @@
       </c>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:17">
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
@@ -5910,7 +5913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:17">
       <c r="B31" s="1" t="s">
         <v>9</v>
       </c>
@@ -5936,7 +5939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:17">
       <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
@@ -5960,6 +5963,9 @@
       </c>
       <c r="K32" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="2:11">

--- a/trunk/hardware/PowerBoard/Document/Connector Bus Signals.xlsx
+++ b/trunk/hardware/PowerBoard/Document/Connector Bus Signals.xlsx
@@ -222,7 +222,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -237,107 +237,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="114">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="198">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -369,102 +278,102 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -472,11 +381,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -508,102 +417,102 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -611,11 +520,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -647,102 +556,102 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -750,11 +659,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -786,102 +695,102 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -889,11 +798,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -925,102 +834,102 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1028,11 +937,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1064,102 +973,102 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1167,11 +1076,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1203,18 +1112,114 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1231,93 +1236,14 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1335,6 +1261,109 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color rgb="FF006100"/>
@@ -1361,11 +1390,816 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1674,14 +2508,14 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:K29"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
     <col min="3" max="4" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -1881,11 +2715,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C9" s="1">
         <v>13</v>
@@ -1894,10 +2725,10 @@
         <v>14</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>2</v>
@@ -1913,9 +2744,8 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="7"/>
-      <c r="B10" s="5" t="s">
-        <v>11</v>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>15</v>
@@ -1924,7 +2754,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F10" s="7"/>
       <c r="H10" s="1" t="s">
@@ -1941,9 +2771,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C11" s="1">
         <v>17</v>
@@ -1951,10 +2780,9 @@
       <c r="D11" s="1">
         <v>18</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="7"/>
+      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1969,9 +2797,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="5" t="s">
-        <v>13</v>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C12" s="1">
         <v>19</v>
@@ -1980,9 +2807,11 @@
         <v>20</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="H12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1996,7 +2825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
+    <row r="13" spans="1:11">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
@@ -2006,8 +2835,8 @@
       <c r="D13" s="1">
         <v>22</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
+      <c r="E13" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F13" s="7"/>
       <c r="H13" s="1" t="s">
@@ -2024,11 +2853,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C14" s="1">
         <v>23</v>
@@ -2036,9 +2862,10 @@
       <c r="D14" s="1">
         <v>24</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="E14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="7"/>
       <c r="H14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2053,9 +2880,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="7"/>
-      <c r="B15" s="5" t="s">
-        <v>19</v>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C15" s="1">
         <v>25</v>
@@ -2063,9 +2889,10 @@
       <c r="D15" s="1">
         <v>26</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="E15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7"/>
       <c r="H15" s="1" t="s">
         <v>2</v>
       </c>
@@ -2115,8 +2942,11 @@
       <c r="D17" s="1">
         <v>30</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>2</v>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>2</v>
@@ -2141,9 +2971,10 @@
       <c r="D18" s="1">
         <v>32</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="E18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="7"/>
       <c r="H18" s="1" t="s">
         <v>2</v>
       </c>
@@ -2167,9 +2998,10 @@
       <c r="D19" s="1">
         <v>34</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="E19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="7"/>
       <c r="H19" s="1" t="s">
         <v>2</v>
       </c>
@@ -2193,9 +3025,10 @@
       <c r="D20" s="1">
         <v>36</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="E20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="7"/>
       <c r="H20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2220,8 +3053,9 @@
         <v>38</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F21" s="7"/>
       <c r="H21" s="1" t="s">
         <v>2</v>
       </c>
@@ -2552,66 +3386,330 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="F17:F21"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:K33">
-    <cfRule type="containsText" dxfId="113" priority="17" operator="containsText" text="AGND">
+  <conditionalFormatting sqref="C1:D33 A1:B8 A13:B13 A16:B33 E1:F10 G1:K33 E11 E12:F33">
+    <cfRule type="containsText" dxfId="183" priority="99" operator="containsText" text="GPIO">
+      <formula>NOT(ISERROR(SEARCH("GPIO",A1)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="182" priority="101" operator="beginsWith" text="PC">
+      <formula>LEFT(A1,2)="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="181" priority="102" operator="beginsWith" text="PB">
+      <formula>LEFT(A1,2)="PB"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="180" priority="103" operator="beginsWith" text="PA">
+      <formula>LEFT(A1,2)="PA"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="179" priority="105" operator="containsText" text="I2C">
+      <formula>NOT(ISERROR(SEARCH("I2C",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="106" operator="containsText" text="SPI">
+      <formula>NOT(ISERROR(SEARCH("SPI",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="177" priority="107" operator="containsText" text="DXVY">
+      <formula>NOT(ISERROR(SEARCH("DXVY",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="176" priority="108" operator="containsText" text="D1V5">
+      <formula>NOT(ISERROR(SEARCH("D1V5",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="175" priority="109" operator="containsText" text="D3V3">
+      <formula>NOT(ISERROR(SEARCH("D3V3",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="110" operator="containsText" text="VOUT">
+      <formula>NOT(ISERROR(SEARCH("VOUT",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="173" priority="111" operator="containsText" text="DGND">
+      <formula>NOT(ISERROR(SEARCH("DGND",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="172" priority="112" operator="containsText" text="A1V5">
+      <formula>NOT(ISERROR(SEARCH("A1V5",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="171" priority="113" operator="containsText" text="A3V3">
+      <formula>NOT(ISERROR(SEARCH("A3V3",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="170" priority="115" operator="containsText" text="AGND">
       <formula>NOT(ISERROR(SEARCH("AGND",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="15" operator="containsText" text="A3V3">
-      <formula>NOT(ISERROR(SEARCH("A3V3",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="14" operator="containsText" text="A1V5">
-      <formula>NOT(ISERROR(SEARCH("A1V5",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="13" operator="containsText" text="DGND">
-      <formula>NOT(ISERROR(SEARCH("DGND",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="12" operator="containsText" text="VOUT">
-      <formula>NOT(ISERROR(SEARCH("VOUT",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="11" operator="containsText" text="D3V3">
-      <formula>NOT(ISERROR(SEARCH("D3V3",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="10" operator="containsText" text="D1V5">
-      <formula>NOT(ISERROR(SEARCH("D1V5",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="9" operator="containsText" text="DXVY">
-      <formula>NOT(ISERROR(SEARCH("DXVY",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="8" operator="containsText" text="SPI">
-      <formula>NOT(ISERROR(SEARCH("SPI",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="7" operator="containsText" text="I2C">
-      <formula>NOT(ISERROR(SEARCH("I2C",A1)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="103" priority="5" operator="beginsWith" text="PA">
-      <formula>LEFT(A1,2)="PA"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="102" priority="4" operator="beginsWith" text="PB">
-      <formula>LEFT(A1,2)="PB"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="101" priority="3" operator="beginsWith" text="PC">
-      <formula>LEFT(A1,2)="PC"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="1" operator="containsText" text="GPIO">
-      <formula>NOT(ISERROR(SEARCH("GPIO",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23">
-    <cfRule type="containsText" dxfId="99" priority="16" operator="containsText" text="A1V5">
+    <cfRule type="containsText" dxfId="169" priority="114" operator="containsText" text="A1V5">
       <formula>NOT(ISERROR(SEARCH("A1V5",P23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="containsText" dxfId="98" priority="6" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="168" priority="104" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",N22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="containsText" dxfId="167" priority="71" operator="containsText" text="GPIO">
+      <formula>NOT(ISERROR(SEARCH("GPIO",B9)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="166" priority="72" operator="beginsWith" text="PC">
+      <formula>LEFT(B9,2)="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="165" priority="73" operator="beginsWith" text="PB">
+      <formula>LEFT(B9,2)="PB"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="164" priority="74" operator="beginsWith" text="PA">
+      <formula>LEFT(B9,2)="PA"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="163" priority="75" operator="containsText" text="I2C">
+      <formula>NOT(ISERROR(SEARCH("I2C",B9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="162" priority="76" operator="containsText" text="SPI">
+      <formula>NOT(ISERROR(SEARCH("SPI",B9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="161" priority="77" operator="containsText" text="DXVY">
+      <formula>NOT(ISERROR(SEARCH("DXVY",B9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="160" priority="78" operator="containsText" text="D1V5">
+      <formula>NOT(ISERROR(SEARCH("D1V5",B9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="159" priority="79" operator="containsText" text="D3V3">
+      <formula>NOT(ISERROR(SEARCH("D3V3",B9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="158" priority="80" operator="containsText" text="VOUT">
+      <formula>NOT(ISERROR(SEARCH("VOUT",B9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="81" operator="containsText" text="DGND">
+      <formula>NOT(ISERROR(SEARCH("DGND",B9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="156" priority="82" operator="containsText" text="A1V5">
+      <formula>NOT(ISERROR(SEARCH("A1V5",B9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="155" priority="83" operator="containsText" text="A3V3">
+      <formula>NOT(ISERROR(SEARCH("A3V3",B9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="84" operator="containsText" text="AGND">
+      <formula>NOT(ISERROR(SEARCH("AGND",B9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="containsText" dxfId="139" priority="57" operator="containsText" text="GPIO">
+      <formula>NOT(ISERROR(SEARCH("GPIO",B10)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="138" priority="58" operator="beginsWith" text="PC">
+      <formula>LEFT(B10,2)="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="137" priority="59" operator="beginsWith" text="PB">
+      <formula>LEFT(B10,2)="PB"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="136" priority="60" operator="beginsWith" text="PA">
+      <formula>LEFT(B10,2)="PA"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="135" priority="61" operator="containsText" text="I2C">
+      <formula>NOT(ISERROR(SEARCH("I2C",B10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="62" operator="containsText" text="SPI">
+      <formula>NOT(ISERROR(SEARCH("SPI",B10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="63" operator="containsText" text="DXVY">
+      <formula>NOT(ISERROR(SEARCH("DXVY",B10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="132" priority="64" operator="containsText" text="D1V5">
+      <formula>NOT(ISERROR(SEARCH("D1V5",B10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="131" priority="65" operator="containsText" text="D3V3">
+      <formula>NOT(ISERROR(SEARCH("D3V3",B10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="66" operator="containsText" text="VOUT">
+      <formula>NOT(ISERROR(SEARCH("VOUT",B10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="67" operator="containsText" text="DGND">
+      <formula>NOT(ISERROR(SEARCH("DGND",B10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="128" priority="68" operator="containsText" text="A1V5">
+      <formula>NOT(ISERROR(SEARCH("A1V5",B10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="69" operator="containsText" text="A3V3">
+      <formula>NOT(ISERROR(SEARCH("A3V3",B10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="70" operator="containsText" text="AGND">
+      <formula>NOT(ISERROR(SEARCH("AGND",B10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="containsText" dxfId="111" priority="43" operator="containsText" text="GPIO">
+      <formula>NOT(ISERROR(SEARCH("GPIO",B11)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="110" priority="44" operator="beginsWith" text="PC">
+      <formula>LEFT(B11,2)="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="109" priority="45" operator="beginsWith" text="PB">
+      <formula>LEFT(B11,2)="PB"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="108" priority="46" operator="beginsWith" text="PA">
+      <formula>LEFT(B11,2)="PA"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="107" priority="47" operator="containsText" text="I2C">
+      <formula>NOT(ISERROR(SEARCH("I2C",B11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="48" operator="containsText" text="SPI">
+      <formula>NOT(ISERROR(SEARCH("SPI",B11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="49" operator="containsText" text="DXVY">
+      <formula>NOT(ISERROR(SEARCH("DXVY",B11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="50" operator="containsText" text="D1V5">
+      <formula>NOT(ISERROR(SEARCH("D1V5",B11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="51" operator="containsText" text="D3V3">
+      <formula>NOT(ISERROR(SEARCH("D3V3",B11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="52" operator="containsText" text="VOUT">
+      <formula>NOT(ISERROR(SEARCH("VOUT",B11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="53" operator="containsText" text="DGND">
+      <formula>NOT(ISERROR(SEARCH("DGND",B11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="54" operator="containsText" text="A1V5">
+      <formula>NOT(ISERROR(SEARCH("A1V5",B11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="55" operator="containsText" text="A3V3">
+      <formula>NOT(ISERROR(SEARCH("A3V3",B11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="56" operator="containsText" text="AGND">
+      <formula>NOT(ISERROR(SEARCH("AGND",B11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="containsText" dxfId="83" priority="29" operator="containsText" text="GPIO">
+      <formula>NOT(ISERROR(SEARCH("GPIO",B12)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="82" priority="30" operator="beginsWith" text="PC">
+      <formula>LEFT(B12,2)="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="81" priority="31" operator="beginsWith" text="PB">
+      <formula>LEFT(B12,2)="PB"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="80" priority="32" operator="beginsWith" text="PA">
+      <formula>LEFT(B12,2)="PA"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="33" operator="containsText" text="I2C">
+      <formula>NOT(ISERROR(SEARCH("I2C",B12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="34" operator="containsText" text="SPI">
+      <formula>NOT(ISERROR(SEARCH("SPI",B12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="35" operator="containsText" text="DXVY">
+      <formula>NOT(ISERROR(SEARCH("DXVY",B12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="36" operator="containsText" text="D1V5">
+      <formula>NOT(ISERROR(SEARCH("D1V5",B12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="37" operator="containsText" text="D3V3">
+      <formula>NOT(ISERROR(SEARCH("D3V3",B12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="38" operator="containsText" text="VOUT">
+      <formula>NOT(ISERROR(SEARCH("VOUT",B12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="39" operator="containsText" text="DGND">
+      <formula>NOT(ISERROR(SEARCH("DGND",B12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="40" operator="containsText" text="A1V5">
+      <formula>NOT(ISERROR(SEARCH("A1V5",B12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="41" operator="containsText" text="A3V3">
+      <formula>NOT(ISERROR(SEARCH("A3V3",B12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="42" operator="containsText" text="AGND">
+      <formula>NOT(ISERROR(SEARCH("AGND",B12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="GPIO">
+      <formula>NOT(ISERROR(SEARCH("GPIO",B14)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="54" priority="16" operator="beginsWith" text="PC">
+      <formula>LEFT(B14,2)="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="53" priority="17" operator="beginsWith" text="PB">
+      <formula>LEFT(B14,2)="PB"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="52" priority="18" operator="beginsWith" text="PA">
+      <formula>LEFT(B14,2)="PA"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="19" operator="containsText" text="I2C">
+      <formula>NOT(ISERROR(SEARCH("I2C",B14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="20" operator="containsText" text="SPI">
+      <formula>NOT(ISERROR(SEARCH("SPI",B14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="21" operator="containsText" text="DXVY">
+      <formula>NOT(ISERROR(SEARCH("DXVY",B14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="22" operator="containsText" text="D1V5">
+      <formula>NOT(ISERROR(SEARCH("D1V5",B14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="D3V3">
+      <formula>NOT(ISERROR(SEARCH("D3V3",B14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="24" operator="containsText" text="VOUT">
+      <formula>NOT(ISERROR(SEARCH("VOUT",B14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="25" operator="containsText" text="DGND">
+      <formula>NOT(ISERROR(SEARCH("DGND",B14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="26" operator="containsText" text="A1V5">
+      <formula>NOT(ISERROR(SEARCH("A1V5",B14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="27" operator="containsText" text="A3V3">
+      <formula>NOT(ISERROR(SEARCH("A3V3",B14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="28" operator="containsText" text="AGND">
+      <formula>NOT(ISERROR(SEARCH("AGND",B14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="GPIO">
+      <formula>NOT(ISERROR(SEARCH("GPIO",B15)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="26" priority="2" operator="beginsWith" text="PC">
+      <formula>LEFT(B15,2)="PC"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="25" priority="3" operator="beginsWith" text="PB">
+      <formula>LEFT(B15,2)="PB"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="24" priority="4" operator="beginsWith" text="PA">
+      <formula>LEFT(B15,2)="PA"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="I2C">
+      <formula>NOT(ISERROR(SEARCH("I2C",B15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="SPI">
+      <formula>NOT(ISERROR(SEARCH("SPI",B15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="DXVY">
+      <formula>NOT(ISERROR(SEARCH("DXVY",B15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="D1V5">
+      <formula>NOT(ISERROR(SEARCH("D1V5",B15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="D3V3">
+      <formula>NOT(ISERROR(SEARCH("D3V3",B15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="VOUT">
+      <formula>NOT(ISERROR(SEARCH("VOUT",B15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="DGND">
+      <formula>NOT(ISERROR(SEARCH("DGND",B15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="A1V5">
+      <formula>NOT(ISERROR(SEARCH("A1V5",B15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="A3V3">
+      <formula>NOT(ISERROR(SEARCH("A3V3",B15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="AGND">
+      <formula>NOT(ISERROR(SEARCH("AGND",B15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/hardware/PowerBoard/Document/Connector Bus Signals.xlsx
+++ b/trunk/hardware/PowerBoard/Document/Connector Bus Signals.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t>Pin</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>D1V5</t>
-  </si>
-  <si>
-    <t>DXVY</t>
   </si>
   <si>
     <t>AGND</t>
@@ -197,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -205,11 +202,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -218,26 +230,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="198">
+  <dxfs count="221">
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -379,6 +424,35 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FF006100"/>
@@ -518,6 +592,37 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FF006100"/>
@@ -656,6 +761,25 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1907,9 +2031,14 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1922,6 +2051,121 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2505,10 +2749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2522,1194 +2766,805 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="H1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="6">
         <v>1</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="6">
         <v>2</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="6">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="6">
         <v>3</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="6">
         <v>4</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <v>5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="6">
         <v>5</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="6">
         <v>6</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>7</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="6">
         <v>8</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="6">
         <v>7</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="6">
         <v>8</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6">
         <v>9</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="6">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="E7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="6">
         <v>9</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="6">
         <v>10</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>6</v>
+      <c r="K7" s="8" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
+    <row r="8" spans="1:11" ht="18" customHeight="1">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6">
         <v>11</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
         <v>12</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6">
         <v>11</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="6">
         <v>12</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6">
         <v>13</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="6">
         <v>14</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="F9" s="10"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
         <v>13</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="6">
         <v>14</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6">
         <v>15</v>
       </c>
-      <c r="D10" s="1">
+      <c r="J10" s="6">
         <v>16</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="H10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="1">
-        <v>15</v>
-      </c>
-      <c r="J10" s="1">
-        <v>16</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1">
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6">
         <v>17</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="6">
         <v>18</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="E11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6">
         <v>17</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="6">
         <v>18</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6">
         <v>19</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="6">
         <v>20</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="F12" s="10"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6">
         <v>19</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="6">
         <v>20</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6">
         <v>21</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="6">
         <v>22</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="H13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="F13" s="10"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6">
         <v>21</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="6">
         <v>22</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6">
         <v>23</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="6">
         <v>24</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="H14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="F14" s="10"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6">
         <v>23</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="6">
         <v>24</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6">
+        <v>25</v>
+      </c>
+      <c r="D15" s="6">
+        <v>26</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="1">
+      <c r="H15" s="6"/>
+      <c r="I15" s="6">
         <v>25</v>
       </c>
-      <c r="D15" s="1">
+      <c r="J15" s="6">
         <v>26</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="H15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="1">
-        <v>25</v>
-      </c>
-      <c r="J15" s="1">
-        <v>26</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1">
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6">
         <v>27</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="6">
         <v>28</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="E16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6">
         <v>27</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="6">
         <v>28</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" spans="2:17" ht="15" customHeight="1">
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6">
         <v>29</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="6">
         <v>30</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="F17" s="10"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6">
         <v>29</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="6">
         <v>30</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6">
         <v>31</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="6">
         <v>32</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="H18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="1">
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6">
         <v>31</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="6">
         <v>32</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6">
         <v>33</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="6">
         <v>34</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="H19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="F19" s="10"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6">
         <v>33</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="6">
         <v>34</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6">
         <v>35</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="6">
         <v>36</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="H20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="E20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6">
         <v>35</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="6">
         <v>36</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" spans="2:17">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6">
+        <v>37</v>
+      </c>
+      <c r="D21" s="6">
+        <v>38</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="1">
+      <c r="H21" s="6"/>
+      <c r="I21" s="6">
         <v>37</v>
       </c>
-      <c r="D21" s="1">
+      <c r="J21" s="6">
         <v>38</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="H21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="1">
-        <v>37</v>
-      </c>
-      <c r="J21" s="1">
-        <v>38</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" spans="2:17">
-      <c r="B22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6">
         <v>39</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="6">
         <v>40</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" s="1">
+      <c r="E22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6">
         <v>39</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="6">
         <v>40</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="2:17">
-      <c r="B23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6">
         <v>41</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="6">
         <v>42</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" s="1">
+      <c r="E23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6">
         <v>41</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="6">
         <v>42</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6">
         <v>43</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="6">
         <v>44</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I24" s="1">
+      <c r="E24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6">
         <v>43</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="6">
         <v>44</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" spans="2:17">
-      <c r="B25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6">
         <v>45</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="6">
         <v>46</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I25" s="1">
+      <c r="E25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6">
         <v>45</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="6">
         <v>46</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K25" s="6"/>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6">
         <v>47</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="6">
         <v>48</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" s="1">
+      <c r="E26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6">
         <v>47</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="6">
         <v>48</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="2:17">
-      <c r="B27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6">
         <v>49</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="6">
         <v>50</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" s="1">
+      <c r="E27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6">
         <v>49</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="6">
         <v>50</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K27" s="6"/>
     </row>
     <row r="28" spans="2:17">
-      <c r="B28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6">
         <v>51</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="6">
         <v>52</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" s="1">
+      <c r="E28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6">
         <v>51</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="6">
         <v>52</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6">
         <v>53</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="6">
         <v>54</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I29" s="1">
+      <c r="E29" s="6"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="6">
         <v>53</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="6">
         <v>54</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="2:17">
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6">
         <v>55</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="6">
         <v>56</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="1">
+      <c r="E30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6">
         <v>55</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="6">
         <v>56</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="K30" s="6"/>
     </row>
     <row r="31" spans="2:17">
-      <c r="B31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="1">
+      <c r="B31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="6">
         <v>57</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="6">
         <v>58</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="1">
+      <c r="E31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="6">
         <v>57</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="6">
         <v>58</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>9</v>
+      <c r="K31" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="2:17">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="6">
         <v>59</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="6">
         <v>60</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="6">
         <v>59</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="6">
         <v>60</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="6" t="s">
         <v>8</v>
       </c>
       <c r="Q32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="6">
         <v>61</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="6">
         <v>62</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="6">
         <v>61</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="6">
         <v>62</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="6">
+        <v>63</v>
+      </c>
+      <c r="D34" s="6">
+        <v>64</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="6">
+        <v>63</v>
+      </c>
+      <c r="J34" s="6">
+        <v>64</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F17:F21"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:D33 A1:B8 A13:B13 A16:B33 E1:F10 G1:K33 E11 E12:F33">
-    <cfRule type="containsText" dxfId="183" priority="99" operator="containsText" text="GPIO">
+  <conditionalFormatting sqref="A1:B8 A12:B13 A15:A33 B30:B34 F1:G33 E1:E28 E30:E34 K1:K28 K30:K34 H1:H28 H30:H34 C1:D34 I1:J34 B8:B28">
+    <cfRule type="containsText" dxfId="33" priority="184" operator="containsText" text="GPIO">
       <formula>NOT(ISERROR(SEARCH("GPIO",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="182" priority="101" operator="beginsWith" text="PC">
+    <cfRule type="beginsWith" dxfId="32" priority="186" operator="beginsWith" text="PC">
       <formula>LEFT(A1,2)="PC"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="181" priority="102" operator="beginsWith" text="PB">
+    <cfRule type="beginsWith" dxfId="31" priority="187" operator="beginsWith" text="PB">
       <formula>LEFT(A1,2)="PB"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="180" priority="103" operator="beginsWith" text="PA">
+    <cfRule type="beginsWith" dxfId="30" priority="188" operator="beginsWith" text="PA">
       <formula>LEFT(A1,2)="PA"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="105" operator="containsText" text="I2C">
+    <cfRule type="containsText" dxfId="29" priority="190" operator="containsText" text="I2C">
       <formula>NOT(ISERROR(SEARCH("I2C",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="106" operator="containsText" text="SPI">
+    <cfRule type="containsText" dxfId="28" priority="191" operator="containsText" text="SPI">
       <formula>NOT(ISERROR(SEARCH("SPI",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="107" operator="containsText" text="DXVY">
+    <cfRule type="containsText" dxfId="27" priority="192" operator="containsText" text="DXVY">
       <formula>NOT(ISERROR(SEARCH("DXVY",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="108" operator="containsText" text="D1V5">
+    <cfRule type="containsText" dxfId="26" priority="193" operator="containsText" text="D1V5">
       <formula>NOT(ISERROR(SEARCH("D1V5",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="109" operator="containsText" text="D3V3">
+    <cfRule type="containsText" dxfId="25" priority="194" operator="containsText" text="D3V3">
       <formula>NOT(ISERROR(SEARCH("D3V3",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="110" operator="containsText" text="VOUT">
+    <cfRule type="containsText" dxfId="24" priority="195" operator="containsText" text="VOUT">
       <formula>NOT(ISERROR(SEARCH("VOUT",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="111" operator="containsText" text="DGND">
+    <cfRule type="containsText" dxfId="23" priority="196" operator="containsText" text="DGND">
       <formula>NOT(ISERROR(SEARCH("DGND",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="112" operator="containsText" text="A1V5">
+    <cfRule type="containsText" dxfId="22" priority="197" operator="containsText" text="A1V5">
       <formula>NOT(ISERROR(SEARCH("A1V5",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="113" operator="containsText" text="A3V3">
+    <cfRule type="containsText" dxfId="21" priority="198" operator="containsText" text="A3V3">
       <formula>NOT(ISERROR(SEARCH("A3V3",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="115" operator="containsText" text="AGND">
+    <cfRule type="containsText" dxfId="20" priority="200" operator="containsText" text="AGND">
       <formula>NOT(ISERROR(SEARCH("AGND",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23">
-    <cfRule type="containsText" dxfId="169" priority="114" operator="containsText" text="A1V5">
+    <cfRule type="containsText" dxfId="19" priority="199" operator="containsText" text="A1V5">
       <formula>NOT(ISERROR(SEARCH("A1V5",P23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="containsText" dxfId="168" priority="104" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="18" priority="189" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",N22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="containsText" dxfId="167" priority="71" operator="containsText" text="GPIO">
-      <formula>NOT(ISERROR(SEARCH("GPIO",B9)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="166" priority="72" operator="beginsWith" text="PC">
-      <formula>LEFT(B9,2)="PC"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="165" priority="73" operator="beginsWith" text="PB">
-      <formula>LEFT(B9,2)="PB"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="164" priority="74" operator="beginsWith" text="PA">
-      <formula>LEFT(B9,2)="PA"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="75" operator="containsText" text="I2C">
-      <formula>NOT(ISERROR(SEARCH("I2C",B9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="76" operator="containsText" text="SPI">
-      <formula>NOT(ISERROR(SEARCH("SPI",B9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="77" operator="containsText" text="DXVY">
-      <formula>NOT(ISERROR(SEARCH("DXVY",B9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="78" operator="containsText" text="D1V5">
-      <formula>NOT(ISERROR(SEARCH("D1V5",B9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="79" operator="containsText" text="D3V3">
-      <formula>NOT(ISERROR(SEARCH("D3V3",B9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="80" operator="containsText" text="VOUT">
-      <formula>NOT(ISERROR(SEARCH("VOUT",B9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="81" operator="containsText" text="DGND">
-      <formula>NOT(ISERROR(SEARCH("DGND",B9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="82" operator="containsText" text="A1V5">
-      <formula>NOT(ISERROR(SEARCH("A1V5",B9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="83" operator="containsText" text="A3V3">
-      <formula>NOT(ISERROR(SEARCH("A3V3",B9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="84" operator="containsText" text="AGND">
-      <formula>NOT(ISERROR(SEARCH("AGND",B9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="139" priority="57" operator="containsText" text="GPIO">
-      <formula>NOT(ISERROR(SEARCH("GPIO",B10)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="138" priority="58" operator="beginsWith" text="PC">
-      <formula>LEFT(B10,2)="PC"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="137" priority="59" operator="beginsWith" text="PB">
-      <formula>LEFT(B10,2)="PB"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="136" priority="60" operator="beginsWith" text="PA">
-      <formula>LEFT(B10,2)="PA"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="61" operator="containsText" text="I2C">
-      <formula>NOT(ISERROR(SEARCH("I2C",B10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="62" operator="containsText" text="SPI">
-      <formula>NOT(ISERROR(SEARCH("SPI",B10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="63" operator="containsText" text="DXVY">
-      <formula>NOT(ISERROR(SEARCH("DXVY",B10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="64" operator="containsText" text="D1V5">
-      <formula>NOT(ISERROR(SEARCH("D1V5",B10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="65" operator="containsText" text="D3V3">
-      <formula>NOT(ISERROR(SEARCH("D3V3",B10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="66" operator="containsText" text="VOUT">
-      <formula>NOT(ISERROR(SEARCH("VOUT",B10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="67" operator="containsText" text="DGND">
-      <formula>NOT(ISERROR(SEARCH("DGND",B10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="68" operator="containsText" text="A1V5">
-      <formula>NOT(ISERROR(SEARCH("A1V5",B10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="69" operator="containsText" text="A3V3">
-      <formula>NOT(ISERROR(SEARCH("A3V3",B10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="70" operator="containsText" text="AGND">
-      <formula>NOT(ISERROR(SEARCH("AGND",B10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="containsText" dxfId="111" priority="43" operator="containsText" text="GPIO">
-      <formula>NOT(ISERROR(SEARCH("GPIO",B11)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="110" priority="44" operator="beginsWith" text="PC">
-      <formula>LEFT(B11,2)="PC"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="109" priority="45" operator="beginsWith" text="PB">
-      <formula>LEFT(B11,2)="PB"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="108" priority="46" operator="beginsWith" text="PA">
-      <formula>LEFT(B11,2)="PA"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="47" operator="containsText" text="I2C">
-      <formula>NOT(ISERROR(SEARCH("I2C",B11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="48" operator="containsText" text="SPI">
-      <formula>NOT(ISERROR(SEARCH("SPI",B11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="49" operator="containsText" text="DXVY">
-      <formula>NOT(ISERROR(SEARCH("DXVY",B11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="50" operator="containsText" text="D1V5">
-      <formula>NOT(ISERROR(SEARCH("D1V5",B11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="51" operator="containsText" text="D3V3">
-      <formula>NOT(ISERROR(SEARCH("D3V3",B11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="52" operator="containsText" text="VOUT">
-      <formula>NOT(ISERROR(SEARCH("VOUT",B11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="53" operator="containsText" text="DGND">
-      <formula>NOT(ISERROR(SEARCH("DGND",B11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="54" operator="containsText" text="A1V5">
-      <formula>NOT(ISERROR(SEARCH("A1V5",B11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="55" operator="containsText" text="A3V3">
-      <formula>NOT(ISERROR(SEARCH("A3V3",B11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="56" operator="containsText" text="AGND">
-      <formula>NOT(ISERROR(SEARCH("AGND",B11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="83" priority="29" operator="containsText" text="GPIO">
-      <formula>NOT(ISERROR(SEARCH("GPIO",B12)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="82" priority="30" operator="beginsWith" text="PC">
-      <formula>LEFT(B12,2)="PC"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="81" priority="31" operator="beginsWith" text="PB">
-      <formula>LEFT(B12,2)="PB"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="80" priority="32" operator="beginsWith" text="PA">
-      <formula>LEFT(B12,2)="PA"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="33" operator="containsText" text="I2C">
-      <formula>NOT(ISERROR(SEARCH("I2C",B12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="34" operator="containsText" text="SPI">
-      <formula>NOT(ISERROR(SEARCH("SPI",B12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="35" operator="containsText" text="DXVY">
-      <formula>NOT(ISERROR(SEARCH("DXVY",B12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="36" operator="containsText" text="D1V5">
-      <formula>NOT(ISERROR(SEARCH("D1V5",B12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="37" operator="containsText" text="D3V3">
-      <formula>NOT(ISERROR(SEARCH("D3V3",B12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="38" operator="containsText" text="VOUT">
-      <formula>NOT(ISERROR(SEARCH("VOUT",B12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="39" operator="containsText" text="DGND">
-      <formula>NOT(ISERROR(SEARCH("DGND",B12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="40" operator="containsText" text="A1V5">
-      <formula>NOT(ISERROR(SEARCH("A1V5",B12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="41" operator="containsText" text="A3V3">
-      <formula>NOT(ISERROR(SEARCH("A3V3",B12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="42" operator="containsText" text="AGND">
-      <formula>NOT(ISERROR(SEARCH("AGND",B12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="GPIO">
-      <formula>NOT(ISERROR(SEARCH("GPIO",B14)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="54" priority="16" operator="beginsWith" text="PC">
-      <formula>LEFT(B14,2)="PC"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="53" priority="17" operator="beginsWith" text="PB">
-      <formula>LEFT(B14,2)="PB"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="52" priority="18" operator="beginsWith" text="PA">
-      <formula>LEFT(B14,2)="PA"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="19" operator="containsText" text="I2C">
-      <formula>NOT(ISERROR(SEARCH("I2C",B14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="20" operator="containsText" text="SPI">
-      <formula>NOT(ISERROR(SEARCH("SPI",B14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="21" operator="containsText" text="DXVY">
-      <formula>NOT(ISERROR(SEARCH("DXVY",B14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="22" operator="containsText" text="D1V5">
-      <formula>NOT(ISERROR(SEARCH("D1V5",B14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="D3V3">
-      <formula>NOT(ISERROR(SEARCH("D3V3",B14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="24" operator="containsText" text="VOUT">
-      <formula>NOT(ISERROR(SEARCH("VOUT",B14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="25" operator="containsText" text="DGND">
-      <formula>NOT(ISERROR(SEARCH("DGND",B14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="26" operator="containsText" text="A1V5">
-      <formula>NOT(ISERROR(SEARCH("A1V5",B14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="27" operator="containsText" text="A3V3">
-      <formula>NOT(ISERROR(SEARCH("A3V3",B14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="28" operator="containsText" text="AGND">
-      <formula>NOT(ISERROR(SEARCH("AGND",B14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="GPIO">
-      <formula>NOT(ISERROR(SEARCH("GPIO",B15)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="26" priority="2" operator="beginsWith" text="PC">
-      <formula>LEFT(B15,2)="PC"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="25" priority="3" operator="beginsWith" text="PB">
-      <formula>LEFT(B15,2)="PB"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="4" operator="beginsWith" text="PA">
-      <formula>LEFT(B15,2)="PA"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="I2C">
-      <formula>NOT(ISERROR(SEARCH("I2C",B15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="SPI">
-      <formula>NOT(ISERROR(SEARCH("SPI",B15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="DXVY">
-      <formula>NOT(ISERROR(SEARCH("DXVY",B15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="D1V5">
-      <formula>NOT(ISERROR(SEARCH("D1V5",B15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="D3V3">
-      <formula>NOT(ISERROR(SEARCH("D3V3",B15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="VOUT">
-      <formula>NOT(ISERROR(SEARCH("VOUT",B15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="DGND">
-      <formula>NOT(ISERROR(SEARCH("DGND",B15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="A1V5">
-      <formula>NOT(ISERROR(SEARCH("A1V5",B15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="A3V3">
-      <formula>NOT(ISERROR(SEARCH("A3V3",B15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="AGND">
-      <formula>NOT(ISERROR(SEARCH("AGND",B15)))</formula>
+  <conditionalFormatting sqref="B3:B34 E3:E34 H3:H34 K3:K34">
+    <cfRule type="containsBlanks" dxfId="17" priority="202">
+      <formula>LEN(TRIM(B3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/hardware/PowerBoard/Document/Connector Bus Signals.xlsx
+++ b/trunk/hardware/PowerBoard/Document/Connector Bus Signals.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" iterate="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>DGND</t>
-  </si>
-  <si>
-    <t>VOUT</t>
   </si>
   <si>
     <t>D3V3</t>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>VSUP</t>
   </si>
 </sst>
 </file>
@@ -264,10 +264,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -283,7 +283,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="32">
     <dxf>
       <font>
         <color theme="1" tint="4.9989318521683403E-2"/>
@@ -291,6 +291,18 @@
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -435,15 +447,18 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="3" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1" tint="4.9989318521683403E-2"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.79998168889431442"/>
@@ -502,463 +517,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="3" tint="-0.24994659260841701"/>
       </font>
       <fill>
@@ -1353,7 +911,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B2" sqref="B2:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1367,22 +925,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2"/>
-      <c r="B1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1403,7 +961,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -1412,12 +970,12 @@
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4">
         <v>5</v>
@@ -1426,12 +984,12 @@
         <v>6</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4">
         <v>7</v>
@@ -1440,7 +998,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1476,10 +1034,10 @@
         <v>14</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1491,7 +1049,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="9"/>
     </row>
@@ -1516,10 +1074,10 @@
         <v>20</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1531,7 +1089,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="10"/>
     </row>
@@ -1544,7 +1102,7 @@
         <v>24</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="10"/>
     </row>
@@ -1557,7 +1115,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -1582,10 +1140,10 @@
         <v>30</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -1597,7 +1155,7 @@
         <v>32</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="10"/>
     </row>
@@ -1610,7 +1168,7 @@
         <v>34</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="10"/>
     </row>
@@ -1623,7 +1181,7 @@
         <v>36</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" s="10"/>
     </row>
@@ -1636,7 +1194,7 @@
         <v>38</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="9"/>
     </row>
@@ -1724,7 +1282,7 @@
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="4">
         <v>55</v>
@@ -1733,7 +1291,7 @@
         <v>56</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:17">
@@ -1748,7 +1306,7 @@
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" s="4">
         <v>59</v>
@@ -1757,15 +1315,15 @@
         <v>60</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" s="4">
         <v>61</v>
@@ -1774,12 +1332,12 @@
         <v>62</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="4">
         <v>63</v>
@@ -1788,7 +1346,7 @@
         <v>64</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1827,29 +1385,29 @@
     <cfRule type="containsText" dxfId="23" priority="194" operator="containsText" text="D3V3">
       <formula>NOT(ISERROR(SEARCH("D3V3",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="195" operator="containsText" text="VOUT">
-      <formula>NOT(ISERROR(SEARCH("VOUT",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="196" operator="containsText" text="DGND">
+    <cfRule type="containsText" dxfId="16" priority="195" operator="containsText" text="VSUP">
+      <formula>NOT(ISERROR(SEARCH("VSUP",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="196" operator="containsText" text="DGND">
       <formula>NOT(ISERROR(SEARCH("DGND",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="197" operator="containsText" text="A1V5">
+    <cfRule type="containsText" dxfId="21" priority="197" operator="containsText" text="A1V5">
       <formula>NOT(ISERROR(SEARCH("A1V5",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="198" operator="containsText" text="A3V3">
+    <cfRule type="containsText" dxfId="20" priority="198" operator="containsText" text="A3V3">
       <formula>NOT(ISERROR(SEARCH("A3V3",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="200" operator="containsText" text="AGND">
+    <cfRule type="containsText" dxfId="19" priority="200" operator="containsText" text="AGND">
       <formula>NOT(ISERROR(SEARCH("AGND",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23">
-    <cfRule type="containsText" dxfId="17" priority="199" operator="containsText" text="A1V5">
+    <cfRule type="containsText" dxfId="18" priority="199" operator="containsText" text="A1V5">
       <formula>NOT(ISERROR(SEARCH("A1V5",P23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B34 E3:E34">
-    <cfRule type="containsBlanks" dxfId="15" priority="202">
+    <cfRule type="containsBlanks" dxfId="17" priority="202">
       <formula>LEN(TRIM(B3))=0</formula>
     </cfRule>
   </conditionalFormatting>
